--- a/文档/画面机能一览.xlsx
+++ b/文档/画面机能一览.xlsx
@@ -10,12 +10,11 @@
     <sheet name="画面机能一览" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +261,10 @@
   </si>
   <si>
     <t>菜品详情画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：黄色标记为二期任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,6 +423,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,25 +443,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,11 +472,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2322,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:Y66"/>
+  <dimension ref="C3:Y72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2331,10 +2334,10 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="4:24">
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="12"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="5" spans="4:24" ht="14.25" thickBot="1">
       <c r="T5" t="s">
@@ -2342,33 +2345,33 @@
       </c>
     </row>
     <row r="6" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="H6" s="1" t="s">
+      <c r="E6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="T7" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="13"/>
     </row>
     <row r="8" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="4:24">
       <c r="T9" t="s">
@@ -2377,93 +2380,93 @@
     </row>
     <row r="10" spans="4:24" ht="14.25" thickBot="1"/>
     <row r="11" spans="4:24" ht="14.25" thickBot="1">
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="4:24" ht="14.25" thickBot="1">
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="4:24">
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="N13" s="12" t="s">
+      <c r="G13" s="3"/>
+      <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="1"/>
       <c r="T13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="4:24" ht="14.25" thickBot="1">
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="N14" s="12" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="N14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="4:24" ht="14.25" thickBot="1">
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="T15" s="7" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="T15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="13"/>
     </row>
     <row r="16" spans="4:24" ht="14.25" thickBot="1">
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="13"/>
       <c r="Q16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="11:25" ht="14.25" thickBot="1"/>
     <row r="18" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="N18" s="9" t="s">
+      <c r="L18" s="3"/>
+      <c r="N18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="10"/>
+      <c r="O18" s="9"/>
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="W18" s="7" t="s">
+      <c r="U18" s="13"/>
+      <c r="W18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="X18" s="8"/>
+      <c r="X18" s="13"/>
     </row>
     <row r="19" spans="11:25">
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
       <c r="N20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="11:25" ht="14.25" thickBot="1">
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="18"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="11:25">
       <c r="N22" t="s">
@@ -2476,49 +2479,49 @@
       </c>
     </row>
     <row r="25" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="3"/>
       <c r="N25" t="s">
         <v>14</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="12"/>
+      <c r="U25" s="1"/>
       <c r="Y25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
       <c r="N26" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="10"/>
+      <c r="R26" s="9"/>
       <c r="T26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
-      <c r="N27" s="12" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="N27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="12"/>
+      <c r="O27" s="1"/>
       <c r="T27" t="s">
         <v>25</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="V27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W27" s="10"/>
+      <c r="W27" s="9"/>
     </row>
     <row r="28" spans="11:25">
       <c r="T28" t="s">
@@ -2530,32 +2533,32 @@
     </row>
     <row r="30" spans="11:25" ht="14.25" thickBot="1"/>
     <row r="31" spans="11:25" ht="14.25" thickBot="1">
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="10"/>
+      <c r="U31" s="9"/>
     </row>
     <row r="32" spans="11:25">
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="N32" s="12" t="s">
+      <c r="L32" s="3"/>
+      <c r="N32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="12"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="11:20">
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="N33" s="12" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="12"/>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="11:20" ht="14.25" thickBot="1">
       <c r="Q35" t="s">
@@ -2563,51 +2566,51 @@
       </c>
     </row>
     <row r="36" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="11:20" ht="14.25" thickBot="1">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="14"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="11:20" ht="14.25" thickBot="1"/>
     <row r="39" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="N40" s="9" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O40" s="10"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="11:20" ht="14.25" thickBot="1"/>
     <row r="43" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="10"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="46" spans="11:20">
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="11"/>
+      <c r="O46" s="18"/>
       <c r="Q46" t="s">
         <v>51</v>
       </c>
@@ -2618,10 +2621,10 @@
       </c>
     </row>
     <row r="48" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O48" s="10"/>
+      <c r="O48" s="9"/>
       <c r="Q48" t="s">
         <v>46</v>
       </c>
@@ -2633,10 +2636,10 @@
     </row>
     <row r="50" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="51" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="10"/>
+      <c r="O51" s="9"/>
       <c r="Q51" t="s">
         <v>48</v>
       </c>
@@ -2652,35 +2655,40 @@
       </c>
     </row>
     <row r="54" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="8"/>
+      <c r="O54" s="13"/>
     </row>
     <row r="56" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="57" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N57" s="15" t="s">
+      <c r="N57" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="16"/>
+      <c r="O57" s="17"/>
     </row>
     <row r="59" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="60" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N60" s="15" t="s">
+      <c r="N60" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="16"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="62" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="63" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N63" s="7" t="s">
+      <c r="N63" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="8"/>
-    </row>
-    <row r="66" spans="14:14">
+      <c r="O63" s="13"/>
+    </row>
+    <row r="66" spans="3:14">
       <c r="N66" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14">
+      <c r="C72" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/文档/画面机能一览.xlsx
+++ b/文档/画面机能一览.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="画面机能一览" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -421,9 +424,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,45 +478,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2345,33 +2394,33 @@
       </c>
     </row>
     <row r="6" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="14"/>
+      <c r="H6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
       <c r="T7" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="13"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" spans="4:24" ht="14.25" thickBot="1">
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="4:24">
       <c r="T9" t="s">
@@ -2380,10 +2429,10 @@
     </row>
     <row r="10" spans="4:24" ht="14.25" thickBot="1"/>
     <row r="11" spans="4:24" ht="14.25" thickBot="1">
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="4:24" ht="14.25" thickBot="1">
       <c r="N12" s="1" t="s">
@@ -2392,10 +2441,10 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="4:24">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="14"/>
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2405,68 +2454,68 @@
       </c>
     </row>
     <row r="14" spans="4:24" ht="14.25" thickBot="1">
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="N14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="4:24" ht="14.25" thickBot="1">
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="T15" s="12" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="T15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13"/>
+      <c r="U15" s="3"/>
     </row>
     <row r="16" spans="4:24" ht="14.25" thickBot="1">
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="3"/>
       <c r="Q16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="11:25" ht="14.25" thickBot="1"/>
     <row r="18" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="N18" s="8" t="s">
+      <c r="L18" s="14"/>
+      <c r="N18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="7"/>
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="W18" s="12" t="s">
+      <c r="U18" s="3"/>
+      <c r="W18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X18" s="13"/>
+      <c r="X18" s="3"/>
     </row>
     <row r="19" spans="11:25">
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
       <c r="N20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="11:25" ht="14.25" thickBot="1">
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="15"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="11:25">
       <c r="N22" t="s">
@@ -2479,10 +2528,10 @@
       </c>
     </row>
     <row r="25" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="14"/>
       <c r="N25" t="s">
         <v>14</v>
       </c>
@@ -2495,22 +2544,22 @@
       </c>
     </row>
     <row r="26" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
       <c r="N26" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="9"/>
+      <c r="R26" s="7"/>
       <c r="T26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="11:25" ht="14.25" thickBot="1">
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
       <c r="N27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,10 +2567,10 @@
       <c r="T27" t="s">
         <v>25</v>
       </c>
-      <c r="V27" s="8" t="s">
+      <c r="V27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="7"/>
     </row>
     <row r="28" spans="11:25">
       <c r="T28" t="s">
@@ -2533,32 +2582,32 @@
     </row>
     <row r="30" spans="11:25" ht="14.25" thickBot="1"/>
     <row r="31" spans="11:25" ht="14.25" thickBot="1">
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="9"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="11:25">
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="14"/>
       <c r="N32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="11:20">
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="16"/>
       <c r="N33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="11:20" ht="14.25" thickBot="1">
       <c r="Q35" t="s">
@@ -2566,51 +2615,51 @@
       </c>
     </row>
     <row r="36" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N36" s="8" t="s">
+      <c r="N36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="11:20" ht="14.25" thickBot="1">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="S37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="11"/>
+      <c r="T37" s="10"/>
     </row>
     <row r="38" spans="11:20" ht="14.25" thickBot="1"/>
     <row r="39" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-      <c r="N40" s="8" t="s">
+      <c r="K40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="N40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="11:20" ht="14.25" thickBot="1">
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="11:20" ht="14.25" thickBot="1"/>
     <row r="43" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="9"/>
+      <c r="O43" s="7"/>
     </row>
     <row r="46" spans="11:20">
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="18"/>
+      <c r="O46" s="8"/>
       <c r="Q46" t="s">
         <v>51</v>
       </c>
@@ -2621,10 +2670,10 @@
       </c>
     </row>
     <row r="48" spans="11:20" ht="14.25" thickBot="1">
-      <c r="N48" s="8" t="s">
+      <c r="N48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O48" s="9"/>
+      <c r="O48" s="7"/>
       <c r="Q48" t="s">
         <v>46</v>
       </c>
@@ -2636,10 +2685,10 @@
     </row>
     <row r="50" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="51" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N51" s="8" t="s">
+      <c r="N51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="7"/>
       <c r="Q51" t="s">
         <v>48</v>
       </c>
@@ -2655,31 +2704,31 @@
       </c>
     </row>
     <row r="54" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N54" s="12" t="s">
+      <c r="N54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="13"/>
+      <c r="O54" s="3"/>
     </row>
     <row r="56" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="57" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N57" s="16" t="s">
+      <c r="N57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="17"/>
+      <c r="O57" s="5"/>
     </row>
     <row r="59" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="60" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N60" s="16" t="s">
+      <c r="N60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="17"/>
+      <c r="O60" s="5"/>
     </row>
     <row r="62" spans="14:17" ht="14.25" thickBot="1"/>
     <row r="63" spans="14:17" ht="14.25" thickBot="1">
-      <c r="N63" s="12" t="s">
+      <c r="N63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="13"/>
+      <c r="O63" s="3"/>
     </row>
     <row r="66" spans="3:14">
       <c r="N66" t="s">
@@ -2693,6 +2742,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="K39:L41"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="K32:L34"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="N57:O57"/>
@@ -2709,19 +2771,6 @@
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="K39:L41"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="K32:L34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
